--- a/lb4/лаба4.xlsx
+++ b/lb4/лаба4.xlsx
@@ -16,29 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ucc</t>
   </si>
   <si>
-    <t>fi(t)</t>
-  </si>
-  <si>
-    <t>Betta0</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Uerli</t>
-  </si>
-  <si>
-    <t>Uporog</t>
-  </si>
-  <si>
-    <t>Ubenas</t>
-  </si>
-  <si>
     <t>Rk</t>
   </si>
   <si>
@@ -46,24 +28,6 @@
   </si>
   <si>
     <t>R2</t>
-  </si>
-  <si>
-    <t>Uke0</t>
-  </si>
-  <si>
-    <t>Ube0</t>
-  </si>
-  <si>
-    <t>Ik0</t>
-  </si>
-  <si>
-    <t>Ib0</t>
-  </si>
-  <si>
-    <t>gm</t>
-  </si>
-  <si>
-    <t>ku</t>
   </si>
   <si>
     <t>Betta</t>
@@ -430,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:S15"/>
+  <dimension ref="B2:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -441,118 +405,17 @@
     <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0.6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <f>(B2-B3)/B6</f>
-        <v>1634.817191462407</v>
-      </c>
-      <c r="L2">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3">
-        <f>E2*LN(B2/(E4*L2))</f>
-        <v>0.67549979143332906</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <f>(B2-B4)/(11*B7)</f>
-        <v>15489.892889106308</v>
-      </c>
-      <c r="L3">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0.63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1E-13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <f>B4/(10*B7)</f>
-        <v>944.10692806954012</v>
-      </c>
-      <c r="L4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <f>E4*EXP(B4/E2)*(1+B3/E5)</f>
-        <v>3.6701351266270749E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <f>(E4*EXP(B4/E2))/E3</f>
-        <v>6.6729729575037717E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    <row r="2" spans="2:19">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="8" spans="2:19">
       <c r="L8" t="s">
         <v>0</v>
       </c>
@@ -560,116 +423,100 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P8" s="1">
-        <v>3.9899999999999996E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="R8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <f>M14/P8</f>
-        <v>676.69172932330832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9">
-        <f>B6/B7</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3">
-        <f>P8/E2</f>
-        <v>0.15346153846153845</v>
-      </c>
+        <v>1483.5164835164835</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>122.9</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P9" s="1">
         <f>P8/M9</f>
-        <v>3.2465419039869808E-5</v>
+        <v>1.582608695652174E-5</v>
       </c>
       <c r="R9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S9" s="1">
         <f>M10/P11</f>
-        <v>1962.0877192982459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>4024.9999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>0.63700000000000001</v>
       </c>
       <c r="R10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S10" s="1">
         <f>M15/P12</f>
-        <v>12217.195260879471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
-        <f>-F9*((S8*12000)/(S8+12000))</f>
-        <v>-98.302764850807549</v>
-      </c>
+        <v>25062.187812187807</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>2.2999999999999998</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P11" s="1">
         <f>10*P9</f>
-        <v>3.2465419039869807E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>1.582608695652174E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P12" s="1">
         <f>11*P9</f>
-        <v>3.571196094385679E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>1.7408695652173915E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
       <c r="L14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <f>M8-M11</f>
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="2:19">
       <c r="L15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <f>M8-M10</f>
